--- a/_GameData/LocaleGameData.xlsx
+++ b/_GameData/LocaleGameData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon2-400\Desktop\QTGameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19BA772B-5560-4036-9E89-2594C14D7A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8F2B28F-8021-461C-9A43-78879B27AA75}"/>
   </bookViews>
   <sheets>
     <sheet name="LocaleGameData" sheetId="1" r:id="rId1"/>
@@ -17,15 +18,48 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
@@ -300,7 +334,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -476,7 +510,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3F855D61-0694-4F15-9E65-12CBBD76FEC1}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
@@ -495,8 +529,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="시트별저장버튼"/>
       <sheetName val="아이템 가격 밸런싱"/>
@@ -538,13 +575,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="StringTable" displayName="StringTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A2:D76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C88A6060-098D-46E3-A886-1CCFD74A9951}" name="StringTable" displayName="StringTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:D76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" name="Index" dataDxfId="2"/>
-    <tableColumn id="5" name="LocaleKR" dataDxfId="1"/>
-    <tableColumn id="16" name="LocaleUS"/>
-    <tableColumn id="1" name="#설명값참조" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{8E60FC8E-BB43-479F-BAAA-E55C008A11C7}" name="Index" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{C44A0F2A-B79B-4649-9FAA-D9428A210DCC}" name="LocaleKR" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{2E45F151-46B9-4C2E-A9FD-136C482BAF65}" name="LocaleUS"/>
+    <tableColumn id="1" xr3:uid="{75096E57-82C2-44E8-BF2D-34DAC2C1E5BD}" name="#설명값참조" dataDxfId="0">
       <calculatedColumnFormula array="1">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</calculatedColumnFormula>
@@ -571,7 +608,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -583,7 +620,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -630,6 +667,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -665,6 +719,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -816,14 +887,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D119D513-C265-418F-8837-044CA7CEE69A}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -873,7 +944,7 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="2" t="str" cm="1">
         <f t="array" ref="D3">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -891,7 +962,7 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="2" t="str" cm="1">
         <f t="array" ref="D4">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -909,7 +980,7 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="2" t="str" cm="1">
         <f t="array" ref="D5">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -924,7 +995,7 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="2" t="str" cm="1">
         <f t="array" ref="D6">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -939,7 +1010,7 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="2" t="str" cm="1">
         <f t="array" ref="D7">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -954,7 +1025,7 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="2" t="str" cm="1">
         <f t="array" ref="D8">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -972,7 +1043,7 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="2" t="str" cm="1">
         <f t="array" ref="D9">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -987,7 +1058,7 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" s="2" t="str" cm="1">
         <f t="array" ref="D10">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1001,7 +1072,7 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" s="2" t="str" cm="1">
         <f t="array" ref="D11">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1018,7 +1089,7 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" s="2" t="str" cm="1">
         <f t="array" ref="D12">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1032,7 +1103,7 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D13" s="2" t="str" cm="1">
         <f t="array" ref="D13">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1046,7 +1117,7 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D14" s="2" t="str" cm="1">
         <f t="array" ref="D14">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1060,7 +1131,7 @@
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D15" s="2" t="str" cm="1">
         <f t="array" ref="D15">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1074,7 +1145,7 @@
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D16" s="2" t="str" cm="1">
         <f t="array" ref="D16">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1088,7 +1159,7 @@
       <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D17" s="2" t="str" cm="1">
         <f t="array" ref="D17">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1102,7 +1173,7 @@
       <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D18" s="2" t="str" cm="1">
         <f t="array" ref="D18">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1116,7 +1187,7 @@
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D19" s="2" t="str" cm="1">
         <f t="array" ref="D19">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1130,7 +1201,7 @@
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D20" s="2" t="str" cm="1">
         <f t="array" ref="D20">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1144,7 +1215,7 @@
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="2" t="str">
+      <c r="D21" s="2" t="str" cm="1">
         <f t="array" ref="D21">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1158,7 +1229,7 @@
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="2" t="str">
+      <c r="D22" s="2" t="str" cm="1">
         <f t="array" ref="D22">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1172,7 +1243,7 @@
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="2" t="str">
+      <c r="D23" s="2" t="str" cm="1">
         <f t="array" ref="D23">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1186,7 +1257,7 @@
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="2" t="str">
+      <c r="D24" s="2" t="str" cm="1">
         <f t="array" ref="D24">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1200,7 +1271,7 @@
       <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="2" t="str">
+      <c r="D25" s="2" t="str" cm="1">
         <f t="array" ref="D25">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1214,7 +1285,7 @@
       <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="2" t="str">
+      <c r="D26" s="2" t="str" cm="1">
         <f t="array" ref="D26">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1228,7 +1299,7 @@
       <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="2" t="str">
+      <c r="D27" s="2" t="str" cm="1">
         <f t="array" ref="D27">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1242,7 +1313,7 @@
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="2" t="str">
+      <c r="D28" s="2" t="str" cm="1">
         <f t="array" ref="D28">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1256,7 +1327,7 @@
       <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="2" t="str">
+      <c r="D29" s="2" t="str" cm="1">
         <f t="array" ref="D29">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1270,7 +1341,7 @@
       <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="2" t="str">
+      <c r="D30" s="2" t="str" cm="1">
         <f t="array" ref="D30">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1284,7 +1355,7 @@
       <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="2" t="str">
+      <c r="D31" s="2" t="str" cm="1">
         <f t="array" ref="D31">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1298,7 +1369,7 @@
       <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="2" t="str">
+      <c r="D32" s="2" t="str" cm="1">
         <f t="array" ref="D32">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1312,7 +1383,7 @@
       <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="2" t="str">
+      <c r="D33" s="2" t="str" cm="1">
         <f t="array" ref="D33">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1326,7 +1397,7 @@
       <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="2" t="str">
+      <c r="D34" s="2" t="str" cm="1">
         <f t="array" ref="D34">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1340,7 +1411,7 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="2" t="str">
+      <c r="D35" s="2" t="str" cm="1">
         <f t="array" ref="D35">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1354,7 +1425,7 @@
       <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="2" t="str">
+      <c r="D36" s="2" t="str" cm="1">
         <f t="array" ref="D36">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1368,7 +1439,7 @@
       <c r="B37" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="2" t="str">
+      <c r="D37" s="2" t="str" cm="1">
         <f t="array" ref="D37">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1382,7 +1453,7 @@
       <c r="B38" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="2" t="str">
+      <c r="D38" s="2" t="str" cm="1">
         <f t="array" ref="D38">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1396,7 +1467,7 @@
       <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="2" t="str">
+      <c r="D39" s="2" t="str" cm="1">
         <f t="array" ref="D39">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1407,7 +1478,7 @@
       <c r="A40">
         <v>20010</v>
       </c>
-      <c r="D40" s="2" t="str">
+      <c r="D40" s="2" t="str" cm="1">
         <f t="array" ref="D40">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1418,7 +1489,7 @@
       <c r="A41">
         <v>20011</v>
       </c>
-      <c r="D41" s="2" t="str">
+      <c r="D41" s="2" t="str" cm="1">
         <f t="array" ref="D41">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1429,7 +1500,7 @@
       <c r="A42">
         <v>20020</v>
       </c>
-      <c r="D42" s="2" t="str">
+      <c r="D42" s="2" t="str" cm="1">
         <f t="array" ref="D42">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1440,7 +1511,7 @@
       <c r="A43">
         <v>20021</v>
       </c>
-      <c r="D43" s="2" t="str">
+      <c r="D43" s="2" t="str" cm="1">
         <f t="array" ref="D43">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1451,7 +1522,7 @@
       <c r="A44">
         <v>20022</v>
       </c>
-      <c r="D44" s="2" t="str">
+      <c r="D44" s="2" t="str" cm="1">
         <f t="array" ref="D44">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1462,7 +1533,7 @@
       <c r="A45">
         <v>20023</v>
       </c>
-      <c r="D45" s="2" t="str">
+      <c r="D45" s="2" t="str" cm="1">
         <f t="array" ref="D45">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1476,7 +1547,7 @@
       <c r="B46" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="2" t="str">
+      <c r="D46" s="2" t="str" cm="1">
         <f t="array" ref="D46">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1490,7 +1561,7 @@
       <c r="B47" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="2" t="str">
+      <c r="D47" s="2" t="str" cm="1">
         <f t="array" ref="D47">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1504,7 +1575,7 @@
       <c r="B48" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="2" t="str">
+      <c r="D48" s="2" t="str" cm="1">
         <f t="array" ref="D48">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1518,7 +1589,7 @@
       <c r="B49" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="2" t="str">
+      <c r="D49" s="2" t="str" cm="1">
         <f t="array" ref="D49">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1532,7 +1603,7 @@
       <c r="B50" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="2" t="str">
+      <c r="D50" s="2" t="str" cm="1">
         <f t="array" ref="D50">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1546,7 +1617,7 @@
       <c r="B51" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="2" t="str">
+      <c r="D51" s="2" t="str" cm="1">
         <f t="array" ref="D51">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1560,7 +1631,7 @@
       <c r="B52" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="2" t="str">
+      <c r="D52" s="2" t="str" cm="1">
         <f t="array" ref="D52">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1574,7 +1645,7 @@
       <c r="B53" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="2" t="str">
+      <c r="D53" s="2" t="str" cm="1">
         <f t="array" ref="D53">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1588,7 +1659,7 @@
       <c r="B54" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="2" t="str">
+      <c r="D54" s="2" t="str" cm="1">
         <f t="array" ref="D54">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1602,7 +1673,7 @@
       <c r="B55" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="2" t="str">
+      <c r="D55" s="2" t="str" cm="1">
         <f t="array" ref="D55">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1616,7 +1687,7 @@
       <c r="B56" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="2" t="str">
+      <c r="D56" s="2" t="str" cm="1">
         <f t="array" ref="D56">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1630,7 +1701,7 @@
       <c r="B57" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="2" t="str">
+      <c r="D57" s="2" t="str" cm="1">
         <f t="array" ref="D57">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1644,7 +1715,7 @@
       <c r="B58" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="2" t="str">
+      <c r="D58" s="2" t="str" cm="1">
         <f t="array" ref="D58">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1658,7 +1729,7 @@
       <c r="B59" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="2" t="str">
+      <c r="D59" s="2" t="str" cm="1">
         <f t="array" ref="D59">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1672,7 +1743,7 @@
       <c r="B60" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="2" t="str">
+      <c r="D60" s="2" t="str" cm="1">
         <f t="array" ref="D60">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1686,7 +1757,7 @@
       <c r="B61" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="2" t="str">
+      <c r="D61" s="2" t="str" cm="1">
         <f t="array" ref="D61">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1700,7 +1771,7 @@
       <c r="B62" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="2" t="str">
+      <c r="D62" s="2" t="str" cm="1">
         <f t="array" ref="D62">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1714,7 +1785,7 @@
       <c r="B63" t="s">
         <v>66</v>
       </c>
-      <c r="D63" s="2" t="str">
+      <c r="D63" s="2" t="str" cm="1">
         <f t="array" ref="D63">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1728,7 +1799,7 @@
       <c r="B64" t="s">
         <v>67</v>
       </c>
-      <c r="D64" s="2" t="str">
+      <c r="D64" s="2" t="str" cm="1">
         <f t="array" ref="D64">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1742,7 +1813,7 @@
       <c r="B65" t="s">
         <v>68</v>
       </c>
-      <c r="D65" s="2" t="str">
+      <c r="D65" s="2" t="str" cm="1">
         <f t="array" ref="D65">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1756,7 +1827,7 @@
       <c r="B66" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="2" t="str">
+      <c r="D66" s="2" t="str" cm="1">
         <f t="array" ref="D66">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1770,7 +1841,7 @@
       <c r="B67" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="2" t="str">
+      <c r="D67" s="2" t="str" cm="1">
         <f t="array" ref="D67">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1784,7 +1855,7 @@
       <c r="B68" t="s">
         <v>71</v>
       </c>
-      <c r="D68" s="2" t="str">
+      <c r="D68" s="2" t="str" cm="1">
         <f t="array" ref="D68">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1798,7 +1869,7 @@
       <c r="B69" t="s">
         <v>72</v>
       </c>
-      <c r="D69" s="2" t="str">
+      <c r="D69" s="2" t="str" cm="1">
         <f t="array" ref="D69">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1812,7 +1883,7 @@
       <c r="B70" t="s">
         <v>73</v>
       </c>
-      <c r="D70" s="2" t="str">
+      <c r="D70" s="2" t="str" cm="1">
         <f t="array" ref="D70">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1826,7 +1897,7 @@
       <c r="B71" t="s">
         <v>74</v>
       </c>
-      <c r="D71" s="2" t="str">
+      <c r="D71" s="2" t="str" cm="1">
         <f t="array" ref="D71">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1840,7 +1911,7 @@
       <c r="B72" t="s">
         <v>75</v>
       </c>
-      <c r="D72" s="2" t="str">
+      <c r="D72" s="2" t="str" cm="1">
         <f t="array" ref="D72">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1854,7 +1925,7 @@
       <c r="B73" t="s">
         <v>76</v>
       </c>
-      <c r="D73" s="2" t="str">
+      <c r="D73" s="2" t="str" cm="1">
         <f t="array" ref="D73">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1868,7 +1939,7 @@
       <c r="B74" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="2" t="str">
+      <c r="D74" s="2" t="str" cm="1">
         <f t="array" ref="D74">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1882,7 +1953,7 @@
       <c r="B75" t="s">
         <v>78</v>
       </c>
-      <c r="D75" s="2" t="str">
+      <c r="D75" s="2" t="str" cm="1">
         <f t="array" ref="D75">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
@@ -1896,7 +1967,7 @@
       <c r="B76" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="2" t="str">
+      <c r="D76" s="2" t="str" cm="1">
         <f t="array" ref="D76">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>

--- a/_GameData/LocaleGameData.xlsx
+++ b/_GameData/LocaleGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19BA772B-5560-4036-9E89-2594C14D7A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CDDFB63-494A-45D5-A57F-739972FDA556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8F2B28F-8021-461C-9A43-78879B27AA75}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F6B4794-83BA-49CA-ADF2-9B10F2FBB3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="LocaleGameData" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{3F855D61-0694-4F15-9E65-12CBBD76FEC1}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{645AE549-4DA9-48F3-8AF8-02A10B557398}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
@@ -575,13 +575,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C88A6060-098D-46E3-A886-1CCFD74A9951}" name="StringTable" displayName="StringTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1F4754-18E1-49CF-AC65-3A06F2FB3EF5}" name="StringTable" displayName="StringTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:D76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{8E60FC8E-BB43-479F-BAAA-E55C008A11C7}" name="Index" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{C44A0F2A-B79B-4649-9FAA-D9428A210DCC}" name="LocaleKR" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{2E45F151-46B9-4C2E-A9FD-136C482BAF65}" name="LocaleUS"/>
-    <tableColumn id="1" xr3:uid="{75096E57-82C2-44E8-BF2D-34DAC2C1E5BD}" name="#설명값참조" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{D9AEF2E2-4D50-40EF-967E-95EFF51C0FBD}" name="Index" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{EB3C48FA-0EF5-451A-BDEC-A8C45B754D24}" name="LocaleKR" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{2BCBF88A-B867-4C89-B8BA-86F9140CDF41}" name="LocaleUS"/>
+    <tableColumn id="1" xr3:uid="{D8F64811-06CA-4204-B775-9111FCD7BA4A}" name="#설명값참조" dataDxfId="0">
       <calculatedColumnFormula array="1">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</calculatedColumnFormula>
@@ -887,20 +887,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D119D513-C265-418F-8837-044CA7CEE69A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3708DB-E11C-4245-89C4-BC76E2F52CA0}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="85.125" customWidth="1"/>
+    <col min="2" max="2" width="63.625" customWidth="1"/>
     <col min="3" max="3" width="35.75" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>

--- a/_GameData/LocaleGameData.xlsx
+++ b/_GameData/LocaleGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CDDFB63-494A-45D5-A57F-739972FDA556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62F4D12-CABB-4B67-AD6A-5AE2D73B80DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F6B4794-83BA-49CA-ADF2-9B10F2FBB3F3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9521CFB3-FA90-4567-A46F-972416A4A6C5}"/>
   </bookViews>
   <sheets>
     <sheet name="LocaleGameData" sheetId="1" r:id="rId1"/>
@@ -127,10 +127,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뾱뾱 슬리퍼</t>
-  </si>
-  <si>
-    <t>sliper?</t>
+    <t>장난감 배트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toy Bat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -510,7 +511,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{645AE549-4DA9-48F3-8AF8-02A10B557398}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{ADFB377B-5853-4623-B63F-34862B95AC1D}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
@@ -536,8 +537,8 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="시트별저장버튼"/>
-      <sheetName val="아이템 가격 밸런싱"/>
-      <sheetName val="밸런스 시트"/>
+      <sheetName val="아이템 밸런스 시트"/>
+      <sheetName val="전투 밸런스 시트"/>
       <sheetName val="공용데이터(참고용)"/>
       <sheetName val="CharacterGameData"/>
       <sheetName val="CharacterAtkGameData"/>
@@ -575,13 +576,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA1F4754-18E1-49CF-AC65-3A06F2FB3EF5}" name="StringTable" displayName="StringTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{236B5ADE-290C-4F5C-8266-F3FEFA0935DC}" name="StringTable" displayName="StringTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:D76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{D9AEF2E2-4D50-40EF-967E-95EFF51C0FBD}" name="Index" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{EB3C48FA-0EF5-451A-BDEC-A8C45B754D24}" name="LocaleKR" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{2BCBF88A-B867-4C89-B8BA-86F9140CDF41}" name="LocaleUS"/>
-    <tableColumn id="1" xr3:uid="{D8F64811-06CA-4204-B775-9111FCD7BA4A}" name="#설명값참조" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{1E185D9E-3085-4832-A919-05E65AE24516}" name="Index" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{F4DEA4BC-432C-4FB1-86F8-2F7456A31F39}" name="LocaleKR" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{B6A52CC3-7A9A-4AAD-80EA-4F049D99623C}" name="LocaleUS"/>
+    <tableColumn id="1" xr3:uid="{38A66E89-2407-4F18-A4AB-5FC5AB2C65E7}" name="#설명값참조" dataDxfId="0">
       <calculatedColumnFormula array="1">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</calculatedColumnFormula>
@@ -887,14 +888,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3708DB-E11C-4245-89C4-BC76E2F52CA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56908E2-ABD6-47D1-8A9B-A116591EFED4}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1551,7 +1552,7 @@
         <f t="array" ref="D46">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
 "아이템 자체",
 (INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>뾱뾱 슬리퍼</v>
+        <v>장난감 배트</v>
       </c>
     </row>
     <row r="47" spans="1:4">

--- a/_GameData/LocaleGameData.xlsx
+++ b/_GameData/LocaleGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B62F4D12-CABB-4B67-AD6A-5AE2D73B80DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B835B46-B401-4983-AB1B-D96B0DB21408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9521CFB3-FA90-4567-A46F-972416A4A6C5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A8E7F8F-5B8B-41AA-AEA6-2BBFF9275FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="LocaleGameData" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{ADFB377B-5853-4623-B63F-34862B95AC1D}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{FDC27D03-A360-48FF-8341-508F5C1C9473}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
@@ -576,16 +576,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{236B5ADE-290C-4F5C-8266-F3FEFA0935DC}" name="StringTable" displayName="StringTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A2:D76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{959CCD9A-2E5A-4977-8F59-B298B2AC3C13}" name="LocaleTable" displayName="LocaleTable" ref="B2:E76" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="B2:E76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{1E185D9E-3085-4832-A919-05E65AE24516}" name="Index" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{F4DEA4BC-432C-4FB1-86F8-2F7456A31F39}" name="LocaleKR" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{B6A52CC3-7A9A-4AAD-80EA-4F049D99623C}" name="LocaleUS"/>
-    <tableColumn id="1" xr3:uid="{38A66E89-2407-4F18-A4AB-5FC5AB2C65E7}" name="#설명값참조" dataDxfId="0">
-      <calculatedColumnFormula array="1">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{893F1A8E-EA48-482B-B651-36DD3E50254C}" name="Index" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{EB24C719-26D9-41C2-9A8B-DB12C7DA2627}" name="LocaleKR" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{ED25A5D8-7E7E-4276-8016-30C19F6E4878}" name="LocaleUS"/>
+    <tableColumn id="1" xr3:uid="{76871B7E-98FD-47EE-BBD4-7F5FAD09EC5B}" name="#설명값참조" dataDxfId="0">
+      <calculatedColumnFormula array="1">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -888,1090 +888,1090 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56908E2-ABD6-47D1-8A9B-A116591EFED4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B3FC25-123E-4984-AC4A-819B9E775021}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="B1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="63.625" customWidth="1"/>
-    <col min="3" max="3" width="35.75" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="63.625" customWidth="1"/>
+    <col min="4" max="4" width="35.75" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="2:5">
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" spans="2:5">
+      <c r="B3">
         <f>[1]!ItemTable[[#This Row],[Index]]+10000</f>
         <v>10010</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="str" cm="1">
-        <f t="array" ref="D3">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="E3" s="2" t="str" cm="1">
+        <f t="array" ref="E3">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4">
         <f>[1]!ItemTable[[#This Row],[Index]]+10000</f>
         <v>10011</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="str" cm="1">
-        <f t="array" ref="D4">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="E4" s="2" t="str" cm="1">
+        <f t="array" ref="E4">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5">
         <f>[1]!ItemTable[[#This Row],[Index]]+10000</f>
         <v>10020</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="str" cm="1">
-        <f t="array" ref="D5">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="E5" s="2" t="str" cm="1">
+        <f t="array" ref="E5">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6">
         <f>[1]!ItemTable[[#This Row],[Index]]+10000</f>
         <v>10021</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="str" cm="1">
-        <f t="array" ref="D6">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="E6" s="2" t="str" cm="1">
+        <f t="array" ref="E6">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7">
         <f>[1]!ItemTable[[#This Row],[Index]]+10000</f>
         <v>10022</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="str" cm="1">
-        <f t="array" ref="D7">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="E7" s="2" t="str" cm="1">
+        <f t="array" ref="E7">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8">
         <f>[1]!ItemTable[[#This Row],[Index]]+10000</f>
         <v>10023</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="str" cm="1">
-        <f t="array" ref="D8">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+      <c r="E8" s="2" t="str" cm="1">
+        <f t="array" ref="E8">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9">
         <f>[1]!ItemTable[[#This Row],[Index]]+10000</f>
         <v>11000</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="str" cm="1">
-        <f t="array" ref="D9">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="E9" s="2" t="str" cm="1">
+        <f t="array" ref="E9">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10">
         <f>[1]!ItemTable[[#This Row],[Index]]+10000</f>
         <v>11001</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2" t="str" cm="1">
-        <f t="array" ref="D10">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+      <c r="E10" s="2" t="str" cm="1">
+        <f t="array" ref="E10">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11">
         <v>11002</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2" t="str" cm="1">
-        <f t="array" ref="D11">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+      <c r="E11" s="2" t="str" cm="1">
+        <f t="array" ref="E11">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12">
         <v>12000</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2" t="str" cm="1">
-        <f t="array" ref="D12">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+      <c r="E12" s="2" t="str" cm="1">
+        <f t="array" ref="E12">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13">
         <v>12001</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="2" t="str" cm="1">
-        <f t="array" ref="D13">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+      <c r="E13" s="2" t="str" cm="1">
+        <f t="array" ref="E13">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14">
         <v>12002</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2" t="str" cm="1">
-        <f t="array" ref="D14">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+      <c r="E14" s="2" t="str" cm="1">
+        <f t="array" ref="E14">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15">
         <v>12003</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2" t="str" cm="1">
-        <f t="array" ref="D15">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+      <c r="E15" s="2" t="str" cm="1">
+        <f t="array" ref="E15">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16">
         <v>12004</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="2" t="str" cm="1">
-        <f t="array" ref="D16">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+      <c r="E16" s="2" t="str" cm="1">
+        <f t="array" ref="E16">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17">
         <v>12005</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="2" t="str" cm="1">
-        <f t="array" ref="D17">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+      <c r="E17" s="2" t="str" cm="1">
+        <f t="array" ref="E17">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18">
         <v>12006</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="2" t="str" cm="1">
-        <f t="array" ref="D18">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
+      <c r="E18" s="2" t="str" cm="1">
+        <f t="array" ref="E18">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19">
         <v>13000</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="2" t="str" cm="1">
-        <f t="array" ref="D19">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+      <c r="E19" s="2" t="str" cm="1">
+        <f t="array" ref="E19">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20">
         <v>13001</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="2" t="str" cm="1">
-        <f t="array" ref="D20">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+      <c r="E20" s="2" t="str" cm="1">
+        <f t="array" ref="E20">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21">
         <v>13002</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="2" t="str" cm="1">
-        <f t="array" ref="D21">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
+      <c r="E21" s="2" t="str" cm="1">
+        <f t="array" ref="E21">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22">
         <v>13003</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="2" t="str" cm="1">
-        <f t="array" ref="D22">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+      <c r="E22" s="2" t="str" cm="1">
+        <f t="array" ref="E22">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23">
         <v>13004</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="2" t="str" cm="1">
-        <f t="array" ref="D23">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+      <c r="E23" s="2" t="str" cm="1">
+        <f t="array" ref="E23">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24">
         <v>13005</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="2" t="str" cm="1">
-        <f t="array" ref="D24">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
+      <c r="E24" s="2" t="str" cm="1">
+        <f t="array" ref="E24">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25">
         <v>13006</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="2" t="str" cm="1">
-        <f t="array" ref="D25">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
+      <c r="E25" s="2" t="str" cm="1">
+        <f t="array" ref="E25">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26">
         <v>13007</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="2" t="str" cm="1">
-        <f t="array" ref="D26">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
+      <c r="E26" s="2" t="str" cm="1">
+        <f t="array" ref="E26">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27">
         <v>13008</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="2" t="str" cm="1">
-        <f t="array" ref="D27">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
+      <c r="E27" s="2" t="str" cm="1">
+        <f t="array" ref="E27">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28">
         <v>13009</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="2" t="str" cm="1">
-        <f t="array" ref="D28">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
+      <c r="E28" s="2" t="str" cm="1">
+        <f t="array" ref="E28">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29">
         <v>13010</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="2" t="str" cm="1">
-        <f t="array" ref="D29">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
+      <c r="E29" s="2" t="str" cm="1">
+        <f t="array" ref="E29">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30">
         <v>13011</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="2" t="str" cm="1">
-        <f t="array" ref="D30">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
+      <c r="E30" s="2" t="str" cm="1">
+        <f t="array" ref="E30">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31">
         <v>13012</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="2" t="str" cm="1">
-        <f t="array" ref="D31">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
+      <c r="E31" s="2" t="str" cm="1">
+        <f t="array" ref="E31">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32">
         <v>14000</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="2" t="str" cm="1">
-        <f t="array" ref="D32">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
+      <c r="E32" s="2" t="str" cm="1">
+        <f t="array" ref="E32">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33">
         <v>14001</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="2" t="str" cm="1">
-        <f t="array" ref="D33">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
+      <c r="E33" s="2" t="str" cm="1">
+        <f t="array" ref="E33">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34">
         <v>14002</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="2" t="str" cm="1">
-        <f t="array" ref="D34">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
+      <c r="E34" s="2" t="str" cm="1">
+        <f t="array" ref="E34">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35">
         <v>14003</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="2" t="str" cm="1">
-        <f t="array" ref="D35">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36">
+      <c r="E35" s="2" t="str" cm="1">
+        <f t="array" ref="E35">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36">
         <v>14004</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="2" t="str" cm="1">
-        <f t="array" ref="D36">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37">
+      <c r="E36" s="2" t="str" cm="1">
+        <f t="array" ref="E36">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37">
         <v>14005</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="2" t="str" cm="1">
-        <f t="array" ref="D37">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
+      <c r="E37" s="2" t="str" cm="1">
+        <f t="array" ref="E37">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38">
         <v>14006</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="2" t="str" cm="1">
-        <f t="array" ref="D38">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39">
+      <c r="E38" s="2" t="str" cm="1">
+        <f t="array" ref="E38">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39">
         <v>14007</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="2" t="str" cm="1">
-        <f t="array" ref="D39">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
+      <c r="E39" s="2" t="str" cm="1">
+        <f t="array" ref="E39">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40">
         <v>20010</v>
       </c>
-      <c r="D40" s="2" t="str" cm="1">
-        <f t="array" ref="D40">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E40" s="2" t="str" cm="1">
+        <f t="array" ref="E40">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>하트 1개</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
+    <row r="41" spans="2:5">
+      <c r="B41">
         <v>20011</v>
       </c>
-      <c r="D41" s="2" t="str" cm="1">
-        <f t="array" ref="D41">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E41" s="2" t="str" cm="1">
+        <f t="array" ref="E41">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>하트 2개</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
+    <row r="42" spans="2:5">
+      <c r="B42">
         <v>20020</v>
       </c>
-      <c r="D42" s="2" t="str" cm="1">
-        <f t="array" ref="D42">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E42" s="2" t="str" cm="1">
+        <f t="array" ref="E42">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>15 골드</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43">
+    <row r="43" spans="2:5">
+      <c r="B43">
         <v>20021</v>
       </c>
-      <c r="D43" s="2" t="str" cm="1">
-        <f t="array" ref="D43">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E43" s="2" t="str" cm="1">
+        <f t="array" ref="E43">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>30 골드</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
+    <row r="44" spans="2:5">
+      <c r="B44">
         <v>20022</v>
       </c>
-      <c r="D44" s="2" t="str" cm="1">
-        <f t="array" ref="D44">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E44" s="2" t="str" cm="1">
+        <f t="array" ref="E44">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>45 골드</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
+    <row r="45" spans="2:5">
+      <c r="B45">
         <v>20023</v>
       </c>
-      <c r="D45" s="2" t="str" cm="1">
-        <f t="array" ref="D45">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E45" s="2" t="str" cm="1">
+        <f t="array" ref="E45">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>60 골드</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
+    <row r="46" spans="2:5">
+      <c r="B46">
         <v>21000</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="2" t="str" cm="1">
-        <f t="array" ref="D46">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E46" s="2" t="str" cm="1">
+        <f t="array" ref="E46">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>장난감 배트</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47">
+    <row r="47" spans="2:5">
+      <c r="B47">
         <v>21001</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="2" t="str" cm="1">
-        <f t="array" ref="D47">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E47" s="2" t="str" cm="1">
+        <f t="array" ref="E47">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>무지개빛 총공격</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
+    <row r="48" spans="2:5">
+      <c r="B48">
         <v>21002</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="2" t="str" cm="1">
-        <f t="array" ref="D48">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E48" s="2" t="str" cm="1">
+        <f t="array" ref="E48">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>트럼펫</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
+    <row r="49" spans="2:5">
+      <c r="B49">
         <v>22000</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="2" t="str" cm="1">
-        <f t="array" ref="D49">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E49" s="2" t="str" cm="1">
+        <f t="array" ref="E49">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>신성한 종</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
+    <row r="50" spans="2:5">
+      <c r="B50">
         <v>22001</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="2" t="str" cm="1">
-        <f t="array" ref="D50">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E50" s="2" t="str" cm="1">
+        <f t="array" ref="E50">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>미정1</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
+    <row r="51" spans="2:5">
+      <c r="B51">
         <v>22002</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="2" t="str" cm="1">
-        <f t="array" ref="D51">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E51" s="2" t="str" cm="1">
+        <f t="array" ref="E51">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>무언가 담긴병</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
+    <row r="52" spans="2:5">
+      <c r="B52">
         <v>22003</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="2" t="str" cm="1">
-        <f t="array" ref="D52">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E52" s="2" t="str" cm="1">
+        <f t="array" ref="E52">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>아저씨의 금구슬</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
+    <row r="53" spans="2:5">
+      <c r="B53">
         <v>22004</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="2" t="str" cm="1">
-        <f t="array" ref="D53">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E53" s="2" t="str" cm="1">
+        <f t="array" ref="E53">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>작은 십자가</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
+    <row r="54" spans="2:5">
+      <c r="B54">
         <v>22005</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="2" t="str" cm="1">
-        <f t="array" ref="D54">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E54" s="2" t="str" cm="1">
+        <f t="array" ref="E54">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>목없는 갑옷</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
+    <row r="55" spans="2:5">
+      <c r="B55">
         <v>22006</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="2" t="str" cm="1">
-        <f t="array" ref="D55">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E55" s="2" t="str" cm="1">
+        <f t="array" ref="E55">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>미정2</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56">
+    <row r="56" spans="2:5">
+      <c r="B56">
         <v>23000</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="2" t="str" cm="1">
-        <f t="array" ref="D56">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E56" s="2" t="str" cm="1">
+        <f t="array" ref="E56">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>Dys : 0N Mk2</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57">
+    <row r="57" spans="2:5">
+      <c r="B57">
         <v>23001</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="2" t="str" cm="1">
-        <f t="array" ref="D57">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E57" s="2" t="str" cm="1">
+        <f t="array" ref="E57">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>무해한 불꽃</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58">
+    <row r="58" spans="2:5">
+      <c r="B58">
         <v>23002</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="2" t="str" cm="1">
-        <f t="array" ref="D58">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E58" s="2" t="str" cm="1">
+        <f t="array" ref="E58">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>롱기누스</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59">
+    <row r="59" spans="2:5">
+      <c r="B59">
         <v>23003</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="2" t="str" cm="1">
-        <f t="array" ref="D59">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E59" s="2" t="str" cm="1">
+        <f t="array" ref="E59">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>석가면</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
+    <row r="60" spans="2:5">
+      <c r="B60">
         <v>23004</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="2" t="str" cm="1">
-        <f t="array" ref="D60">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E60" s="2" t="str" cm="1">
+        <f t="array" ref="E60">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>거인의 주먹</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
+    <row r="61" spans="2:5">
+      <c r="B61">
         <v>23005</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="2" t="str" cm="1">
-        <f t="array" ref="D61">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E61" s="2" t="str" cm="1">
+        <f t="array" ref="E61">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>황금왕의 갑옷</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
+    <row r="62" spans="2:5">
+      <c r="B62">
         <v>23006</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="2" t="str" cm="1">
-        <f t="array" ref="D62">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E62" s="2" t="str" cm="1">
+        <f t="array" ref="E62">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>복사기</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
+    <row r="63" spans="2:5">
+      <c r="B63">
         <v>23007</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>66</v>
       </c>
-      <c r="D63" s="2" t="str" cm="1">
-        <f t="array" ref="D63">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E63" s="2" t="str" cm="1">
+        <f t="array" ref="E63">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>어른의 카드</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
+    <row r="64" spans="2:5">
+      <c r="B64">
         <v>23008</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>67</v>
       </c>
-      <c r="D64" s="2" t="str" cm="1">
-        <f t="array" ref="D64">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E64" s="2" t="str" cm="1">
+        <f t="array" ref="E64">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>회광반조</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
+    <row r="65" spans="2:5">
+      <c r="B65">
         <v>23009</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>68</v>
       </c>
-      <c r="D65" s="2" t="str" cm="1">
-        <f t="array" ref="D65">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E65" s="2" t="str" cm="1">
+        <f t="array" ref="E65">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>이카루스의 날개</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
+    <row r="66" spans="2:5">
+      <c r="B66">
         <v>23010</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="2" t="str" cm="1">
-        <f t="array" ref="D66">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E66" s="2" t="str" cm="1">
+        <f t="array" ref="E66">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>신성한 수류탄</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
+    <row r="67" spans="2:5">
+      <c r="B67">
         <v>23011</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="2" t="str" cm="1">
-        <f t="array" ref="D67">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E67" s="2" t="str" cm="1">
+        <f t="array" ref="E67">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>슈퍼콜드</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
+    <row r="68" spans="2:5">
+      <c r="B68">
         <v>23012</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>71</v>
       </c>
-      <c r="D68" s="2" t="str" cm="1">
-        <f t="array" ref="D68">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E68" s="2" t="str" cm="1">
+        <f t="array" ref="E68">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>게이볼그</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69">
+    <row r="69" spans="2:5">
+      <c r="B69">
         <v>24000</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>72</v>
       </c>
-      <c r="D69" s="2" t="str" cm="1">
-        <f t="array" ref="D69">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E69" s="2" t="str" cm="1">
+        <f t="array" ref="E69">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>불길한 깃발</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70">
+    <row r="70" spans="2:5">
+      <c r="B70">
         <v>24001</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>73</v>
       </c>
-      <c r="D70" s="2" t="str" cm="1">
-        <f t="array" ref="D70">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E70" s="2" t="str" cm="1">
+        <f t="array" ref="E70">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>빗바랜 천가죽</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
+    <row r="71" spans="2:5">
+      <c r="B71">
         <v>24002</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>74</v>
       </c>
-      <c r="D71" s="2" t="str" cm="1">
-        <f t="array" ref="D71">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E71" s="2" t="str" cm="1">
+        <f t="array" ref="E71">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>나자렛의 몽키스패너</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72">
+    <row r="72" spans="2:5">
+      <c r="B72">
         <v>24003</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>75</v>
       </c>
-      <c r="D72" s="2" t="str" cm="1">
-        <f t="array" ref="D72">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E72" s="2" t="str" cm="1">
+        <f t="array" ref="E72">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>저주받은 갑옷</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73">
+    <row r="73" spans="2:5">
+      <c r="B73">
         <v>24004</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>76</v>
       </c>
-      <c r="D73" s="2" t="str" cm="1">
-        <f t="array" ref="D73">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E73" s="2" t="str" cm="1">
+        <f t="array" ref="E73">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>유리 대포</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74">
+    <row r="74" spans="2:5">
+      <c r="B74">
         <v>24005</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="2" t="str" cm="1">
-        <f t="array" ref="D74">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E74" s="2" t="str" cm="1">
+        <f t="array" ref="E74">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>청개구리 총</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75">
+    <row r="75" spans="2:5">
+      <c r="B75">
         <v>24006</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>78</v>
       </c>
-      <c r="D75" s="2" t="str" cm="1">
-        <f t="array" ref="D75">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E75" s="2" t="str" cm="1">
+        <f t="array" ref="E75">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>불운의 황금상</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76">
+    <row r="76" spans="2:5">
+      <c r="B76">
         <v>24007</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="2" t="str" cm="1">
-        <f t="array" ref="D76">IF(ISERROR((INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0))),
-"아이템 자체",
-(INDEX(StringTable[LocaleKR],MATCH(StringTable[[#This Row],[Index]]-10000,StringTable[Index]),0)))</f>
+      <c r="E76" s="2" t="str" cm="1">
+        <f t="array" ref="E76">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>저주받은 테니스채</v>
       </c>
     </row>

--- a/_GameData/LocaleGameData.xlsx
+++ b/_GameData/LocaleGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B835B46-B401-4983-AB1B-D96B0DB21408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CAA3930-55CA-40B3-8DDF-605F08E45BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A8E7F8F-5B8B-41AA-AEA6-2BBFF9275FA4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFAE2B8D-9DE4-4CA4-9336-B15276F6693E}"/>
   </bookViews>
   <sheets>
     <sheet name="LocaleGameData" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{FDC27D03-A360-48FF-8341-508F5C1C9473}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{CF706FE5-94D5-4194-958A-D3E450F782C8}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
@@ -576,13 +576,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{959CCD9A-2E5A-4977-8F59-B298B2AC3C13}" name="LocaleTable" displayName="LocaleTable" ref="B2:E76" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56C8D6DC-01A8-4198-9A00-FD1DC1B84062}" name="LocaleTable" displayName="LocaleTable" ref="B2:E76" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B2:E76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{893F1A8E-EA48-482B-B651-36DD3E50254C}" name="Index" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{EB24C719-26D9-41C2-9A8B-DB12C7DA2627}" name="LocaleKR" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{ED25A5D8-7E7E-4276-8016-30C19F6E4878}" name="LocaleUS"/>
-    <tableColumn id="1" xr3:uid="{76871B7E-98FD-47EE-BBD4-7F5FAD09EC5B}" name="#설명값참조" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{FDEBFDE2-F887-4FBC-8C66-0943E51789E6}" name="Index" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{99DE5B3C-5F8E-4CCF-BC50-EB8120C0A3C2}" name="LocaleKR" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{E85799C4-9E70-43B1-85CD-66F74A79FE13}" name="LocaleUS"/>
+    <tableColumn id="1" xr3:uid="{802292CE-7768-4B9F-888E-C885015E9A5F}" name="#설명값참조" dataDxfId="0">
       <calculatedColumnFormula array="1">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</calculatedColumnFormula>
@@ -888,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B3FC25-123E-4984-AC4A-819B9E775021}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB7333C-C601-4938-9419-894C0FD7184E}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/LocaleGameData.xlsx
+++ b/_GameData/LocaleGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CAA3930-55CA-40B3-8DDF-605F08E45BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79165C3F-4B24-4622-BE4F-ECD821E9CC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFAE2B8D-9DE4-4CA4-9336-B15276F6693E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E64F54F-F70B-48EA-B366-1ABF80AE4922}"/>
   </bookViews>
   <sheets>
     <sheet name="LocaleGameData" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{CF706FE5-94D5-4194-958A-D3E450F782C8}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{81C16729-B950-46F7-BB2C-8C2CD131EDC0}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
@@ -576,13 +576,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56C8D6DC-01A8-4198-9A00-FD1DC1B84062}" name="LocaleTable" displayName="LocaleTable" ref="B2:E76" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAC8B788-5DEE-48DD-BC72-0CE71A9ADCD8}" name="LocaleTable" displayName="LocaleTable" ref="B2:E76" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B2:E76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{FDEBFDE2-F887-4FBC-8C66-0943E51789E6}" name="Index" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{99DE5B3C-5F8E-4CCF-BC50-EB8120C0A3C2}" name="LocaleKR" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{E85799C4-9E70-43B1-85CD-66F74A79FE13}" name="LocaleUS"/>
-    <tableColumn id="1" xr3:uid="{802292CE-7768-4B9F-888E-C885015E9A5F}" name="#설명값참조" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{ADE49E22-4C6D-482C-8555-77933A1D3103}" name="Index" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{DDF16B7B-68DD-420F-A408-1085DF87F5BE}" name="LocaleKR" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{8E9701DB-AE46-4461-A7E9-57502231FAA1}" name="LocaleUS"/>
+    <tableColumn id="1" xr3:uid="{6A919762-E8AB-43CC-AA45-08C79C31A976}" name="#설명값참조" dataDxfId="0">
       <calculatedColumnFormula array="1">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</calculatedColumnFormula>
@@ -888,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB7333C-C601-4938-9419-894C0FD7184E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78B63FA-C103-4482-AB21-4B82CBFB0407}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/LocaleGameData.xlsx
+++ b/_GameData/LocaleGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79165C3F-4B24-4622-BE4F-ECD821E9CC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89F7CA2A-0F76-47A1-A7C3-23A5A9172D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E64F54F-F70B-48EA-B366-1ABF80AE4922}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{999EC840-6C1C-4C38-9215-FEF8512F64DD}"/>
   </bookViews>
   <sheets>
     <sheet name="LocaleGameData" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{81C16729-B950-46F7-BB2C-8C2CD131EDC0}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{E9A33916-A199-47E7-A430-17505BAA94B2}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
@@ -576,13 +576,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAC8B788-5DEE-48DD-BC72-0CE71A9ADCD8}" name="LocaleTable" displayName="LocaleTable" ref="B2:E76" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="B2:E76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A24E3EF-0DBD-4042-B4BE-E01EC4CB7FB0}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A2:D76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{ADE49E22-4C6D-482C-8555-77933A1D3103}" name="Index" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{DDF16B7B-68DD-420F-A408-1085DF87F5BE}" name="LocaleKR" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{8E9701DB-AE46-4461-A7E9-57502231FAA1}" name="LocaleUS"/>
-    <tableColumn id="1" xr3:uid="{6A919762-E8AB-43CC-AA45-08C79C31A976}" name="#설명값참조" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{58EE4F75-DDC5-4820-9E89-6260BCBC44BC}" name="Index" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{BBC28149-EA64-4545-9177-D48F459B7FFC}" name="LocaleKR" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{95890B61-FE64-4893-98DF-2BB7F31FB0E3}" name="LocaleUS"/>
+    <tableColumn id="1" xr3:uid="{D2FAE510-3A65-429E-890C-79552B51BCCD}" name="#설명값참조" dataDxfId="0">
       <calculatedColumnFormula array="1">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</calculatedColumnFormula>
@@ -888,1088 +888,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78B63FA-C103-4482-AB21-4B82CBFB0407}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22F0B6A-9254-486B-9E94-190B3EAFF08C}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:E76"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="63.625" customWidth="1"/>
-    <col min="4" max="4" width="35.75" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="63.625" customWidth="1"/>
+    <col min="3" max="3" width="35.75" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
-      <c r="B3">
+    <row r="3" spans="1:4">
+      <c r="A3">
         <f>[1]!ItemTable[[#This Row],[Index]]+10000</f>
         <v>10010</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="str" cm="1">
-        <f t="array" ref="E3">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4">
+      <c r="D3" s="2" t="str" cm="1">
+        <f t="array" ref="D3">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
         <f>[1]!ItemTable[[#This Row],[Index]]+10000</f>
         <v>10011</v>
       </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="str" cm="1">
-        <f t="array" ref="E4">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5">
+      <c r="D4" s="2" t="str" cm="1">
+        <f t="array" ref="D4">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
         <f>[1]!ItemTable[[#This Row],[Index]]+10000</f>
         <v>10020</v>
       </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="str" cm="1">
-        <f t="array" ref="E5">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6">
+      <c r="D5" s="2" t="str" cm="1">
+        <f t="array" ref="D5">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
         <f>[1]!ItemTable[[#This Row],[Index]]+10000</f>
         <v>10021</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="str" cm="1">
-        <f t="array" ref="E6">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7">
+      <c r="D6" s="2" t="str" cm="1">
+        <f t="array" ref="D6">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
         <f>[1]!ItemTable[[#This Row],[Index]]+10000</f>
         <v>10022</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="str" cm="1">
-        <f t="array" ref="E7">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8">
+      <c r="D7" s="2" t="str" cm="1">
+        <f t="array" ref="D7">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
         <f>[1]!ItemTable[[#This Row],[Index]]+10000</f>
         <v>10023</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="str" cm="1">
-        <f t="array" ref="E8">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9">
+      <c r="D8" s="2" t="str" cm="1">
+        <f t="array" ref="D8">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
         <f>[1]!ItemTable[[#This Row],[Index]]+10000</f>
         <v>11000</v>
       </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="str" cm="1">
-        <f t="array" ref="E9">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10">
+      <c r="D9" s="2" t="str" cm="1">
+        <f t="array" ref="D9">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
         <f>[1]!ItemTable[[#This Row],[Index]]+10000</f>
         <v>11001</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="2" t="str" cm="1">
-        <f t="array" ref="E10">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11">
+      <c r="D10" s="2" t="str" cm="1">
+        <f t="array" ref="D10">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
         <v>11002</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2" t="str" cm="1">
-        <f t="array" ref="E11">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12">
+      <c r="D11" s="2" t="str" cm="1">
+        <f t="array" ref="D11">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
         <v>12000</v>
       </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
       <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="2" t="str" cm="1">
-        <f t="array" ref="E12">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13">
+      <c r="D12" s="2" t="str" cm="1">
+        <f t="array" ref="D12">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
         <v>12001</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="2" t="str" cm="1">
-        <f t="array" ref="E13">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14">
+      <c r="D13" s="2" t="str" cm="1">
+        <f t="array" ref="D13">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
         <v>12002</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="2" t="str" cm="1">
-        <f t="array" ref="E14">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15">
+      <c r="D14" s="2" t="str" cm="1">
+        <f t="array" ref="D14">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
         <v>12003</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="2" t="str" cm="1">
-        <f t="array" ref="E15">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16">
+      <c r="D15" s="2" t="str" cm="1">
+        <f t="array" ref="D15">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
         <v>12004</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="2" t="str" cm="1">
-        <f t="array" ref="E16">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17">
+      <c r="D16" s="2" t="str" cm="1">
+        <f t="array" ref="D16">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
         <v>12005</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="2" t="str" cm="1">
-        <f t="array" ref="E17">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18">
+      <c r="D17" s="2" t="str" cm="1">
+        <f t="array" ref="D17">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
         <v>12006</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="2" t="str" cm="1">
-        <f t="array" ref="E18">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19">
+      <c r="D18" s="2" t="str" cm="1">
+        <f t="array" ref="D18">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
         <v>13000</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="2" t="str" cm="1">
-        <f t="array" ref="E19">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20">
+      <c r="D19" s="2" t="str" cm="1">
+        <f t="array" ref="D19">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
         <v>13001</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="2" t="str" cm="1">
-        <f t="array" ref="E20">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21">
+      <c r="D20" s="2" t="str" cm="1">
+        <f t="array" ref="D20">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
         <v>13002</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="2" t="str" cm="1">
-        <f t="array" ref="E21">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22">
+      <c r="D21" s="2" t="str" cm="1">
+        <f t="array" ref="D21">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
         <v>13003</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="2" t="str" cm="1">
-        <f t="array" ref="E22">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23">
+      <c r="D22" s="2" t="str" cm="1">
+        <f t="array" ref="D22">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
         <v>13004</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="2" t="str" cm="1">
-        <f t="array" ref="E23">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24">
+      <c r="D23" s="2" t="str" cm="1">
+        <f t="array" ref="D23">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
         <v>13005</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="2" t="str" cm="1">
-        <f t="array" ref="E24">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25">
+      <c r="D24" s="2" t="str" cm="1">
+        <f t="array" ref="D24">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
         <v>13006</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="2" t="str" cm="1">
-        <f t="array" ref="E25">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26">
+      <c r="D25" s="2" t="str" cm="1">
+        <f t="array" ref="D25">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
         <v>13007</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="2" t="str" cm="1">
-        <f t="array" ref="E26">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27">
+      <c r="D26" s="2" t="str" cm="1">
+        <f t="array" ref="D26">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
         <v>13008</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="2" t="str" cm="1">
-        <f t="array" ref="E27">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28">
+      <c r="D27" s="2" t="str" cm="1">
+        <f t="array" ref="D27">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
         <v>13009</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="2" t="str" cm="1">
-        <f t="array" ref="E28">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29">
+      <c r="D28" s="2" t="str" cm="1">
+        <f t="array" ref="D28">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
         <v>13010</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="2" t="str" cm="1">
-        <f t="array" ref="E29">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30">
+      <c r="D29" s="2" t="str" cm="1">
+        <f t="array" ref="D29">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
         <v>13011</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="2" t="str" cm="1">
-        <f t="array" ref="E30">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31">
+      <c r="D30" s="2" t="str" cm="1">
+        <f t="array" ref="D30">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
         <v>13012</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="2" t="str" cm="1">
-        <f t="array" ref="E31">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32">
+      <c r="D31" s="2" t="str" cm="1">
+        <f t="array" ref="D31">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
         <v>14000</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="2" t="str" cm="1">
-        <f t="array" ref="E32">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33">
+      <c r="D32" s="2" t="str" cm="1">
+        <f t="array" ref="D32">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
         <v>14001</v>
       </c>
-      <c r="C33" t="s">
+      <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="2" t="str" cm="1">
-        <f t="array" ref="E33">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34">
+      <c r="D33" s="2" t="str" cm="1">
+        <f t="array" ref="D33">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
         <v>14002</v>
       </c>
-      <c r="C34" t="s">
+      <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="2" t="str" cm="1">
-        <f t="array" ref="E34">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35">
+      <c r="D34" s="2" t="str" cm="1">
+        <f t="array" ref="D34">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
         <v>14003</v>
       </c>
-      <c r="C35" t="s">
+      <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="2" t="str" cm="1">
-        <f t="array" ref="E35">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36">
+      <c r="D35" s="2" t="str" cm="1">
+        <f t="array" ref="D35">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
         <v>14004</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="2" t="str" cm="1">
-        <f t="array" ref="E36">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37">
+      <c r="D36" s="2" t="str" cm="1">
+        <f t="array" ref="D36">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
         <v>14005</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B37" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="2" t="str" cm="1">
-        <f t="array" ref="E37">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38">
+      <c r="D37" s="2" t="str" cm="1">
+        <f t="array" ref="D37">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
         <v>14006</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B38" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="2" t="str" cm="1">
-        <f t="array" ref="E38">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39">
+      <c r="D38" s="2" t="str" cm="1">
+        <f t="array" ref="D38">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
         <v>14007</v>
       </c>
-      <c r="C39" t="s">
+      <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="2" t="str" cm="1">
-        <f t="array" ref="E39">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
-"아이템 자체",
-(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
-        <v>아이템 자체</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40">
+      <c r="D39" s="2" t="str" cm="1">
+        <f t="array" ref="D39">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+"아이템 자체",
+(INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
+        <v>아이템 자체</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
         <v>20010</v>
       </c>
-      <c r="E40" s="2" t="str" cm="1">
-        <f t="array" ref="E40">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D40" s="2" t="str" cm="1">
+        <f t="array" ref="D40">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>하트 1개</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
-      <c r="B41">
+    <row r="41" spans="1:4">
+      <c r="A41">
         <v>20011</v>
       </c>
-      <c r="E41" s="2" t="str" cm="1">
-        <f t="array" ref="E41">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D41" s="2" t="str" cm="1">
+        <f t="array" ref="D41">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>하트 2개</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
-      <c r="B42">
+    <row r="42" spans="1:4">
+      <c r="A42">
         <v>20020</v>
       </c>
-      <c r="E42" s="2" t="str" cm="1">
-        <f t="array" ref="E42">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D42" s="2" t="str" cm="1">
+        <f t="array" ref="D42">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>15 골드</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
-      <c r="B43">
+    <row r="43" spans="1:4">
+      <c r="A43">
         <v>20021</v>
       </c>
-      <c r="E43" s="2" t="str" cm="1">
-        <f t="array" ref="E43">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D43" s="2" t="str" cm="1">
+        <f t="array" ref="D43">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>30 골드</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
-      <c r="B44">
+    <row r="44" spans="1:4">
+      <c r="A44">
         <v>20022</v>
       </c>
-      <c r="E44" s="2" t="str" cm="1">
-        <f t="array" ref="E44">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D44" s="2" t="str" cm="1">
+        <f t="array" ref="D44">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>45 골드</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
-      <c r="B45">
+    <row r="45" spans="1:4">
+      <c r="A45">
         <v>20023</v>
       </c>
-      <c r="E45" s="2" t="str" cm="1">
-        <f t="array" ref="E45">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D45" s="2" t="str" cm="1">
+        <f t="array" ref="D45">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>60 골드</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
-      <c r="B46">
+    <row r="46" spans="1:4">
+      <c r="A46">
         <v>21000</v>
       </c>
-      <c r="C46" t="s">
+      <c r="B46" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="2" t="str" cm="1">
-        <f t="array" ref="E46">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D46" s="2" t="str" cm="1">
+        <f t="array" ref="D46">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>장난감 배트</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
-      <c r="B47">
+    <row r="47" spans="1:4">
+      <c r="A47">
         <v>21001</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B47" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="2" t="str" cm="1">
-        <f t="array" ref="E47">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D47" s="2" t="str" cm="1">
+        <f t="array" ref="D47">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>무지개빛 총공격</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
-      <c r="B48">
+    <row r="48" spans="1:4">
+      <c r="A48">
         <v>21002</v>
       </c>
-      <c r="C48" t="s">
+      <c r="B48" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="2" t="str" cm="1">
-        <f t="array" ref="E48">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D48" s="2" t="str" cm="1">
+        <f t="array" ref="D48">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>트럼펫</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
-      <c r="B49">
+    <row r="49" spans="1:4">
+      <c r="A49">
         <v>22000</v>
       </c>
-      <c r="C49" t="s">
+      <c r="B49" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="2" t="str" cm="1">
-        <f t="array" ref="E49">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D49" s="2" t="str" cm="1">
+        <f t="array" ref="D49">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>신성한 종</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
-      <c r="B50">
+    <row r="50" spans="1:4">
+      <c r="A50">
         <v>22001</v>
       </c>
-      <c r="C50" t="s">
+      <c r="B50" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="2" t="str" cm="1">
-        <f t="array" ref="E50">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D50" s="2" t="str" cm="1">
+        <f t="array" ref="D50">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>미정1</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
-      <c r="B51">
+    <row r="51" spans="1:4">
+      <c r="A51">
         <v>22002</v>
       </c>
-      <c r="C51" t="s">
+      <c r="B51" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="2" t="str" cm="1">
-        <f t="array" ref="E51">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D51" s="2" t="str" cm="1">
+        <f t="array" ref="D51">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>무언가 담긴병</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
-      <c r="B52">
+    <row r="52" spans="1:4">
+      <c r="A52">
         <v>22003</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B52" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="2" t="str" cm="1">
-        <f t="array" ref="E52">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D52" s="2" t="str" cm="1">
+        <f t="array" ref="D52">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>아저씨의 금구슬</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
-      <c r="B53">
+    <row r="53" spans="1:4">
+      <c r="A53">
         <v>22004</v>
       </c>
-      <c r="C53" t="s">
+      <c r="B53" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="2" t="str" cm="1">
-        <f t="array" ref="E53">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D53" s="2" t="str" cm="1">
+        <f t="array" ref="D53">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>작은 십자가</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
-      <c r="B54">
+    <row r="54" spans="1:4">
+      <c r="A54">
         <v>22005</v>
       </c>
-      <c r="C54" t="s">
+      <c r="B54" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="2" t="str" cm="1">
-        <f t="array" ref="E54">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D54" s="2" t="str" cm="1">
+        <f t="array" ref="D54">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>목없는 갑옷</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
-      <c r="B55">
+    <row r="55" spans="1:4">
+      <c r="A55">
         <v>22006</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B55" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="2" t="str" cm="1">
-        <f t="array" ref="E55">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D55" s="2" t="str" cm="1">
+        <f t="array" ref="D55">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>미정2</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
-      <c r="B56">
+    <row r="56" spans="1:4">
+      <c r="A56">
         <v>23000</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B56" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="2" t="str" cm="1">
-        <f t="array" ref="E56">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D56" s="2" t="str" cm="1">
+        <f t="array" ref="D56">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>Dys : 0N Mk2</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
-      <c r="B57">
+    <row r="57" spans="1:4">
+      <c r="A57">
         <v>23001</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B57" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="2" t="str" cm="1">
-        <f t="array" ref="E57">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D57" s="2" t="str" cm="1">
+        <f t="array" ref="D57">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>무해한 불꽃</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
-      <c r="B58">
+    <row r="58" spans="1:4">
+      <c r="A58">
         <v>23002</v>
       </c>
-      <c r="C58" t="s">
+      <c r="B58" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="2" t="str" cm="1">
-        <f t="array" ref="E58">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D58" s="2" t="str" cm="1">
+        <f t="array" ref="D58">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>롱기누스</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
-      <c r="B59">
+    <row r="59" spans="1:4">
+      <c r="A59">
         <v>23003</v>
       </c>
-      <c r="C59" t="s">
+      <c r="B59" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="2" t="str" cm="1">
-        <f t="array" ref="E59">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D59" s="2" t="str" cm="1">
+        <f t="array" ref="D59">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>석가면</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
-      <c r="B60">
+    <row r="60" spans="1:4">
+      <c r="A60">
         <v>23004</v>
       </c>
-      <c r="C60" t="s">
+      <c r="B60" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="2" t="str" cm="1">
-        <f t="array" ref="E60">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D60" s="2" t="str" cm="1">
+        <f t="array" ref="D60">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>거인의 주먹</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
-      <c r="B61">
+    <row r="61" spans="1:4">
+      <c r="A61">
         <v>23005</v>
       </c>
-      <c r="C61" t="s">
+      <c r="B61" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="2" t="str" cm="1">
-        <f t="array" ref="E61">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D61" s="2" t="str" cm="1">
+        <f t="array" ref="D61">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>황금왕의 갑옷</v>
       </c>
     </row>
-    <row r="62" spans="2:5">
-      <c r="B62">
+    <row r="62" spans="1:4">
+      <c r="A62">
         <v>23006</v>
       </c>
-      <c r="C62" t="s">
+      <c r="B62" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="2" t="str" cm="1">
-        <f t="array" ref="E62">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D62" s="2" t="str" cm="1">
+        <f t="array" ref="D62">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>복사기</v>
       </c>
     </row>
-    <row r="63" spans="2:5">
-      <c r="B63">
+    <row r="63" spans="1:4">
+      <c r="A63">
         <v>23007</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B63" t="s">
         <v>66</v>
       </c>
-      <c r="E63" s="2" t="str" cm="1">
-        <f t="array" ref="E63">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D63" s="2" t="str" cm="1">
+        <f t="array" ref="D63">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>어른의 카드</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
-      <c r="B64">
+    <row r="64" spans="1:4">
+      <c r="A64">
         <v>23008</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B64" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="2" t="str" cm="1">
-        <f t="array" ref="E64">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D64" s="2" t="str" cm="1">
+        <f t="array" ref="D64">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>회광반조</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
-      <c r="B65">
+    <row r="65" spans="1:4">
+      <c r="A65">
         <v>23009</v>
       </c>
-      <c r="C65" t="s">
+      <c r="B65" t="s">
         <v>68</v>
       </c>
-      <c r="E65" s="2" t="str" cm="1">
-        <f t="array" ref="E65">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D65" s="2" t="str" cm="1">
+        <f t="array" ref="D65">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>이카루스의 날개</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
-      <c r="B66">
+    <row r="66" spans="1:4">
+      <c r="A66">
         <v>23010</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B66" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="2" t="str" cm="1">
-        <f t="array" ref="E66">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D66" s="2" t="str" cm="1">
+        <f t="array" ref="D66">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>신성한 수류탄</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
-      <c r="B67">
+    <row r="67" spans="1:4">
+      <c r="A67">
         <v>23011</v>
       </c>
-      <c r="C67" t="s">
+      <c r="B67" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="2" t="str" cm="1">
-        <f t="array" ref="E67">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D67" s="2" t="str" cm="1">
+        <f t="array" ref="D67">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>슈퍼콜드</v>
       </c>
     </row>
-    <row r="68" spans="2:5">
-      <c r="B68">
+    <row r="68" spans="1:4">
+      <c r="A68">
         <v>23012</v>
       </c>
-      <c r="C68" t="s">
+      <c r="B68" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="2" t="str" cm="1">
-        <f t="array" ref="E68">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D68" s="2" t="str" cm="1">
+        <f t="array" ref="D68">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>게이볼그</v>
       </c>
     </row>
-    <row r="69" spans="2:5">
-      <c r="B69">
+    <row r="69" spans="1:4">
+      <c r="A69">
         <v>24000</v>
       </c>
-      <c r="C69" t="s">
+      <c r="B69" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="2" t="str" cm="1">
-        <f t="array" ref="E69">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D69" s="2" t="str" cm="1">
+        <f t="array" ref="D69">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>불길한 깃발</v>
       </c>
     </row>
-    <row r="70" spans="2:5">
-      <c r="B70">
+    <row r="70" spans="1:4">
+      <c r="A70">
         <v>24001</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B70" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="2" t="str" cm="1">
-        <f t="array" ref="E70">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D70" s="2" t="str" cm="1">
+        <f t="array" ref="D70">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>빗바랜 천가죽</v>
       </c>
     </row>
-    <row r="71" spans="2:5">
-      <c r="B71">
+    <row r="71" spans="1:4">
+      <c r="A71">
         <v>24002</v>
       </c>
-      <c r="C71" t="s">
+      <c r="B71" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="2" t="str" cm="1">
-        <f t="array" ref="E71">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D71" s="2" t="str" cm="1">
+        <f t="array" ref="D71">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>나자렛의 몽키스패너</v>
       </c>
     </row>
-    <row r="72" spans="2:5">
-      <c r="B72">
+    <row r="72" spans="1:4">
+      <c r="A72">
         <v>24003</v>
       </c>
-      <c r="C72" t="s">
+      <c r="B72" t="s">
         <v>75</v>
       </c>
-      <c r="E72" s="2" t="str" cm="1">
-        <f t="array" ref="E72">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D72" s="2" t="str" cm="1">
+        <f t="array" ref="D72">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>저주받은 갑옷</v>
       </c>
     </row>
-    <row r="73" spans="2:5">
-      <c r="B73">
+    <row r="73" spans="1:4">
+      <c r="A73">
         <v>24004</v>
       </c>
-      <c r="C73" t="s">
+      <c r="B73" t="s">
         <v>76</v>
       </c>
-      <c r="E73" s="2" t="str" cm="1">
-        <f t="array" ref="E73">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D73" s="2" t="str" cm="1">
+        <f t="array" ref="D73">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>유리 대포</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
-      <c r="B74">
+    <row r="74" spans="1:4">
+      <c r="A74">
         <v>24005</v>
       </c>
-      <c r="C74" t="s">
+      <c r="B74" t="s">
         <v>77</v>
       </c>
-      <c r="E74" s="2" t="str" cm="1">
-        <f t="array" ref="E74">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D74" s="2" t="str" cm="1">
+        <f t="array" ref="D74">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>청개구리 총</v>
       </c>
     </row>
-    <row r="75" spans="2:5">
-      <c r="B75">
+    <row r="75" spans="1:4">
+      <c r="A75">
         <v>24006</v>
       </c>
-      <c r="C75" t="s">
+      <c r="B75" t="s">
         <v>78</v>
       </c>
-      <c r="E75" s="2" t="str" cm="1">
-        <f t="array" ref="E75">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D75" s="2" t="str" cm="1">
+        <f t="array" ref="D75">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>불운의 황금상</v>
       </c>
     </row>
-    <row r="76" spans="2:5">
-      <c r="B76">
+    <row r="76" spans="1:4">
+      <c r="A76">
         <v>24007</v>
       </c>
-      <c r="C76" t="s">
+      <c r="B76" t="s">
         <v>79</v>
       </c>
-      <c r="E76" s="2" t="str" cm="1">
-        <f t="array" ref="E76">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
+      <c r="D76" s="2" t="str" cm="1">
+        <f t="array" ref="D76">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</f>
         <v>저주받은 테니스채</v>

--- a/_GameData/LocaleGameData.xlsx
+++ b/_GameData/LocaleGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89F7CA2A-0F76-47A1-A7C3-23A5A9172D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF905289-3DC8-40C8-B8F8-7A051945E6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{999EC840-6C1C-4C38-9215-FEF8512F64DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA4690E7-4DFD-4333-86DB-CE8D3EF4CB81}"/>
   </bookViews>
   <sheets>
     <sheet name="LocaleGameData" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{E9A33916-A199-47E7-A430-17505BAA94B2}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8461BB82-091C-48C9-8C41-195571ACC60F}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
@@ -576,13 +576,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A24E3EF-0DBD-4042-B4BE-E01EC4CB7FB0}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0D31962B-1045-4D56-BD33-2FE505DCFB54}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:D76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{58EE4F75-DDC5-4820-9E89-6260BCBC44BC}" name="Index" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{BBC28149-EA64-4545-9177-D48F459B7FFC}" name="LocaleKR" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{95890B61-FE64-4893-98DF-2BB7F31FB0E3}" name="LocaleUS"/>
-    <tableColumn id="1" xr3:uid="{D2FAE510-3A65-429E-890C-79552B51BCCD}" name="#설명값참조" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{9B94973A-71E3-464F-8B4B-635129D55FDC}" name="Index" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{0EF88085-73FA-4678-A62F-B815BBD470CD}" name="LocaleKR" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{C26A8A7A-5742-41E3-AA07-435C84F5D43B}" name="LocaleUS"/>
+    <tableColumn id="1" xr3:uid="{37A7F590-567F-40BB-ADB2-8B1DD49D1CD2}" name="#설명값참조" dataDxfId="0">
       <calculatedColumnFormula array="1">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</calculatedColumnFormula>
@@ -888,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22F0B6A-9254-486B-9E94-190B3EAFF08C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE25D47-F15C-4657-B8A9-927F3C0DBDAF}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/LocaleGameData.xlsx
+++ b/_GameData/LocaleGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF905289-3DC8-40C8-B8F8-7A051945E6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{926464E5-E974-4E78-A019-007A7E8012F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA4690E7-4DFD-4333-86DB-CE8D3EF4CB81}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36371E82-4FD5-431F-A58E-11B8AD086E30}"/>
   </bookViews>
   <sheets>
     <sheet name="LocaleGameData" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{8461BB82-091C-48C9-8C41-195571ACC60F}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{752E560E-D217-44A7-BFCD-E6E7A412A796}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
@@ -576,13 +576,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0D31962B-1045-4D56-BD33-2FE505DCFB54}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F59FC59-2780-45B5-9837-2E0AFA5C8C4E}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:D76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{9B94973A-71E3-464F-8B4B-635129D55FDC}" name="Index" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{0EF88085-73FA-4678-A62F-B815BBD470CD}" name="LocaleKR" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{C26A8A7A-5742-41E3-AA07-435C84F5D43B}" name="LocaleUS"/>
-    <tableColumn id="1" xr3:uid="{37A7F590-567F-40BB-ADB2-8B1DD49D1CD2}" name="#설명값참조" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{3E74116A-2D5B-49CF-ACC8-358B924E70B3}" name="Index" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{3EB0DF43-1C6C-4514-992D-9EED7C269723}" name="LocaleKR" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{671D9501-7072-4EC3-9361-21B10DA73983}" name="LocaleUS"/>
+    <tableColumn id="1" xr3:uid="{1C1DD21D-1E9A-4D4A-99AE-01290D34493F}" name="#설명값참조" dataDxfId="0">
       <calculatedColumnFormula array="1">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</calculatedColumnFormula>
@@ -888,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE25D47-F15C-4657-B8A9-927F3C0DBDAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E470C8-0648-4276-AC2C-6E0D036F4743}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/LocaleGameData.xlsx
+++ b/_GameData/LocaleGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{926464E5-E974-4E78-A019-007A7E8012F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{206D6672-8BE2-4B0E-8E15-5E0376795053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36371E82-4FD5-431F-A58E-11B8AD086E30}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{786FE6D6-0481-4B90-8484-251CFE60F96C}"/>
   </bookViews>
   <sheets>
     <sheet name="LocaleGameData" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{752E560E-D217-44A7-BFCD-E6E7A412A796}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{2F26AD7D-7453-4540-8D8B-ED1E5939C896}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
@@ -576,13 +576,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F59FC59-2780-45B5-9837-2E0AFA5C8C4E}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3167A5D-A238-4440-BA61-F9E54813082D}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:D76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{3E74116A-2D5B-49CF-ACC8-358B924E70B3}" name="Index" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{3EB0DF43-1C6C-4514-992D-9EED7C269723}" name="LocaleKR" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{671D9501-7072-4EC3-9361-21B10DA73983}" name="LocaleUS"/>
-    <tableColumn id="1" xr3:uid="{1C1DD21D-1E9A-4D4A-99AE-01290D34493F}" name="#설명값참조" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{04039A20-A85C-4918-932D-E2509C9FBFB1}" name="Index" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{D0594F3F-2CBD-4925-86DF-265D139234B9}" name="LocaleKR" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{D83E3FEA-213E-4E4C-8606-02D5BFAAEF9C}" name="LocaleUS"/>
+    <tableColumn id="1" xr3:uid="{2CD16FBC-2DC0-49D8-8F05-D49A30CA70F6}" name="#설명값참조" dataDxfId="0">
       <calculatedColumnFormula array="1">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</calculatedColumnFormula>
@@ -888,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E470C8-0648-4276-AC2C-6E0D036F4743}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B968AAE8-CDF2-4F96-BB7D-4B742C06ABA5}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/LocaleGameData.xlsx
+++ b/_GameData/LocaleGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{206D6672-8BE2-4B0E-8E15-5E0376795053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97BD7667-A009-4B3B-B981-05EDB33422A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{786FE6D6-0481-4B90-8484-251CFE60F96C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0544031-FCA4-4311-A897-210A142811BC}"/>
   </bookViews>
   <sheets>
     <sheet name="LocaleGameData" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{2F26AD7D-7453-4540-8D8B-ED1E5939C896}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{701510FF-A789-48C6-8D27-492521994BF3}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
@@ -576,13 +576,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3167A5D-A238-4440-BA61-F9E54813082D}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C26A26A-2D4A-449D-BE8C-03ECCCA38DEC}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:D76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{04039A20-A85C-4918-932D-E2509C9FBFB1}" name="Index" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{D0594F3F-2CBD-4925-86DF-265D139234B9}" name="LocaleKR" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{D83E3FEA-213E-4E4C-8606-02D5BFAAEF9C}" name="LocaleUS"/>
-    <tableColumn id="1" xr3:uid="{2CD16FBC-2DC0-49D8-8F05-D49A30CA70F6}" name="#설명값참조" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{A24DBFAD-596D-4958-8C79-294947EA40DC}" name="Index" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{434AAAB2-F4C9-4575-9985-ABBCE0F05525}" name="LocaleKR" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{FFCD48E9-88F4-4A04-83A6-17BA8DAAE2A9}" name="LocaleUS"/>
+    <tableColumn id="1" xr3:uid="{53F1DED0-5950-4241-8549-63E719FD2A6C}" name="#설명값참조" dataDxfId="0">
       <calculatedColumnFormula array="1">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</calculatedColumnFormula>
@@ -888,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B968AAE8-CDF2-4F96-BB7D-4B742C06ABA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFF5C26-0A90-42C1-85BB-75001C7B577F}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/LocaleGameData.xlsx
+++ b/_GameData/LocaleGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97BD7667-A009-4B3B-B981-05EDB33422A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AFE22B0-44C8-4B60-9697-A7AE0E80E1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0544031-FCA4-4311-A897-210A142811BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D890A27-7C67-413E-8BA9-B55154CB43AB}"/>
   </bookViews>
   <sheets>
     <sheet name="LocaleGameData" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{701510FF-A789-48C6-8D27-492521994BF3}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{78C0E8D2-98D4-46D5-95B2-DB0ED7F9D167}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
@@ -576,13 +576,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C26A26A-2D4A-449D-BE8C-03ECCCA38DEC}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AE181D6-B762-4EEC-9D99-9AA185B3C1F1}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:D76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{A24DBFAD-596D-4958-8C79-294947EA40DC}" name="Index" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{434AAAB2-F4C9-4575-9985-ABBCE0F05525}" name="LocaleKR" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{FFCD48E9-88F4-4A04-83A6-17BA8DAAE2A9}" name="LocaleUS"/>
-    <tableColumn id="1" xr3:uid="{53F1DED0-5950-4241-8549-63E719FD2A6C}" name="#설명값참조" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{DD9B8D93-D13C-4F4E-9F6C-0A9EA2325304}" name="Index" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{4B207737-E058-457D-93AC-F27D3F470300}" name="LocaleKR" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{B5BAF6E0-70CC-46DB-B5F0-3CF0C20BBDC9}" name="LocaleUS"/>
+    <tableColumn id="1" xr3:uid="{28C91E39-4145-440A-BBD8-B4B29CF67C9C}" name="#설명값참조" dataDxfId="0">
       <calculatedColumnFormula array="1">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</calculatedColumnFormula>
@@ -888,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFF5C26-0A90-42C1-85BB-75001C7B577F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0279FAFD-B4C1-444A-94A9-B0AEAE0C091B}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/LocaleGameData.xlsx
+++ b/_GameData/LocaleGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AFE22B0-44C8-4B60-9697-A7AE0E80E1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE04F5E-178F-44E5-B9D3-C9977E37FE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D890A27-7C67-413E-8BA9-B55154CB43AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E61A3A4E-25D0-479A-B89A-44077B9C7275}"/>
   </bookViews>
   <sheets>
     <sheet name="LocaleGameData" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{78C0E8D2-98D4-46D5-95B2-DB0ED7F9D167}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{E6C77123-93DB-4A88-BBE7-5F1222F4587C}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
@@ -576,13 +576,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3AE181D6-B762-4EEC-9D99-9AA185B3C1F1}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4A92DDF-E4A3-478D-95FD-DE82BF3B2FF4}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:D76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{DD9B8D93-D13C-4F4E-9F6C-0A9EA2325304}" name="Index" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{4B207737-E058-457D-93AC-F27D3F470300}" name="LocaleKR" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{B5BAF6E0-70CC-46DB-B5F0-3CF0C20BBDC9}" name="LocaleUS"/>
-    <tableColumn id="1" xr3:uid="{28C91E39-4145-440A-BBD8-B4B29CF67C9C}" name="#설명값참조" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{790F5452-D499-4B20-BAE3-7774233C5D9F}" name="Index" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{4655C725-687C-409A-AFBD-D6F8C90CA1E2}" name="LocaleKR" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{77C6A334-6F0B-4B90-A0D7-39330C53D252}" name="LocaleUS"/>
+    <tableColumn id="1" xr3:uid="{25C224A1-4458-4367-8FEC-D99E938E5420}" name="#설명값참조" dataDxfId="0">
       <calculatedColumnFormula array="1">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</calculatedColumnFormula>
@@ -888,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0279FAFD-B4C1-444A-94A9-B0AEAE0C091B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824A1A14-2314-453D-86FD-4A2FA7E0AC18}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/LocaleGameData.xlsx
+++ b/_GameData/LocaleGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE04F5E-178F-44E5-B9D3-C9977E37FE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EEE202C-7679-4597-99DF-4751BF6DF429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E61A3A4E-25D0-479A-B89A-44077B9C7275}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEC38773-024A-43F3-BDA3-18CCC11BC057}"/>
   </bookViews>
   <sheets>
     <sheet name="LocaleGameData" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{E6C77123-93DB-4A88-BBE7-5F1222F4587C}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{6D63C9B8-A122-424E-BBFF-1A58DBBB6002}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
@@ -576,13 +576,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4A92DDF-E4A3-478D-95FD-DE82BF3B2FF4}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A24FE86F-4572-49E8-AE07-E6A6D580832E}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:D76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{790F5452-D499-4B20-BAE3-7774233C5D9F}" name="Index" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{4655C725-687C-409A-AFBD-D6F8C90CA1E2}" name="LocaleKR" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{77C6A334-6F0B-4B90-A0D7-39330C53D252}" name="LocaleUS"/>
-    <tableColumn id="1" xr3:uid="{25C224A1-4458-4367-8FEC-D99E938E5420}" name="#설명값참조" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{2B7DF680-352E-4963-9693-9E5FCC7E9440}" name="Index" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{AFFB9559-2EE2-4A24-B657-97AEBBDFA0AB}" name="LocaleKR" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{5B236CFF-5D1D-468E-BE3E-F0FC3C48D093}" name="LocaleUS"/>
+    <tableColumn id="1" xr3:uid="{A2A44BE6-68D5-4524-8B40-E3796E87EC62}" name="#설명값참조" dataDxfId="0">
       <calculatedColumnFormula array="1">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</calculatedColumnFormula>
@@ -888,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824A1A14-2314-453D-86FD-4A2FA7E0AC18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF23C81-C281-40C7-B94B-113C50991273}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/LocaleGameData.xlsx
+++ b/_GameData/LocaleGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EEE202C-7679-4597-99DF-4751BF6DF429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AB45A55-3017-4942-94B9-493E2B5C9BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EEC38773-024A-43F3-BDA3-18CCC11BC057}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{478F71AC-5229-4DA2-A855-2386B315F35B}"/>
   </bookViews>
   <sheets>
     <sheet name="LocaleGameData" sheetId="1" r:id="rId1"/>
@@ -248,7 +248,8 @@
     <t>이동속도가 조금 빨라집니다.</t>
   </si>
   <si>
-    <t>공격 속도 15% 상승</t>
+    <t>골드를 20% 더 많이 획득할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>차징 속도 20% 상승</t>
@@ -511,7 +512,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{6D63C9B8-A122-424E-BBFF-1A58DBBB6002}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{EB27685D-A668-4973-BDCE-E936EAFB2C51}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
@@ -576,13 +577,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A24FE86F-4572-49E8-AE07-E6A6D580832E}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16E4712B-FA30-4E5A-AB4A-B6F128430D12}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:D76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{2B7DF680-352E-4963-9693-9E5FCC7E9440}" name="Index" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{AFFB9559-2EE2-4A24-B657-97AEBBDFA0AB}" name="LocaleKR" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{5B236CFF-5D1D-468E-BE3E-F0FC3C48D093}" name="LocaleUS"/>
-    <tableColumn id="1" xr3:uid="{A2A44BE6-68D5-4524-8B40-E3796E87EC62}" name="#설명값참조" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{4954E046-A57F-49AB-8F8C-E67A82348CBD}" name="Index" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{A61536D4-942F-4A66-9AD0-5073CE9F10CF}" name="LocaleKR" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{802825A3-E9F6-48A3-B023-6BA98ECD1096}" name="LocaleUS"/>
+    <tableColumn id="1" xr3:uid="{5279B64F-D7A0-4D3A-9012-8C2C35D1E92E}" name="#설명값참조" dataDxfId="0">
       <calculatedColumnFormula array="1">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</calculatedColumnFormula>
@@ -888,14 +889,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF23C81-C281-40C7-B94B-113C50991273}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D081AA-D020-4FA1-AC92-76AAED14AA1E}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/LocaleGameData.xlsx
+++ b/_GameData/LocaleGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AB45A55-3017-4942-94B9-493E2B5C9BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C2B0F90-022B-4A03-BB8F-8679125557DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{478F71AC-5229-4DA2-A855-2386B315F35B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{595394C5-7FF7-4891-A23B-CDEB893DA303}"/>
   </bookViews>
   <sheets>
     <sheet name="LocaleGameData" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{EB27685D-A668-4973-BDCE-E936EAFB2C51}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{AA754704-0985-47EE-AECD-CB595B36CB91}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
@@ -577,13 +577,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{16E4712B-FA30-4E5A-AB4A-B6F128430D12}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADD72442-0293-4639-86D2-0E6F570C8A53}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:D76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{4954E046-A57F-49AB-8F8C-E67A82348CBD}" name="Index" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{A61536D4-942F-4A66-9AD0-5073CE9F10CF}" name="LocaleKR" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{802825A3-E9F6-48A3-B023-6BA98ECD1096}" name="LocaleUS"/>
-    <tableColumn id="1" xr3:uid="{5279B64F-D7A0-4D3A-9012-8C2C35D1E92E}" name="#설명값참조" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{C75A8F83-1EDE-4BB4-99C1-0C81CD624F58}" name="Index" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{A286E732-7F19-4ECA-A05D-1AE3DB749D97}" name="LocaleKR" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{A9E3A4D4-2CE3-447A-AE23-B13F3B97B708}" name="LocaleUS"/>
+    <tableColumn id="1" xr3:uid="{79A33B9A-799A-45B3-99F7-7F1D40C465EA}" name="#설명값참조" dataDxfId="0">
       <calculatedColumnFormula array="1">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</calculatedColumnFormula>
@@ -889,7 +889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D081AA-D020-4FA1-AC92-76AAED14AA1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB915E32-F77A-4F31-ABDD-BF13DED7A75D}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/LocaleGameData.xlsx
+++ b/_GameData/LocaleGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C2B0F90-022B-4A03-BB8F-8679125557DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBC31B5D-8A93-46B5-AD40-46FF06A7DE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{595394C5-7FF7-4891-A23B-CDEB893DA303}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89021993-00E0-4269-8E16-8275B065B17E}"/>
   </bookViews>
   <sheets>
     <sheet name="LocaleGameData" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{AA754704-0985-47EE-AECD-CB595B36CB91}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{EF991050-4F00-4BC2-A661-2F902C1765B1}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
@@ -577,13 +577,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ADD72442-0293-4639-86D2-0E6F570C8A53}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B2932BB2-63E8-42CB-BB14-60A097E48ABD}" name="LocaleTable" displayName="LocaleTable" ref="A2:D76" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:D76" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" xr3:uid="{C75A8F83-1EDE-4BB4-99C1-0C81CD624F58}" name="Index" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{A286E732-7F19-4ECA-A05D-1AE3DB749D97}" name="LocaleKR" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{A9E3A4D4-2CE3-447A-AE23-B13F3B97B708}" name="LocaleUS"/>
-    <tableColumn id="1" xr3:uid="{79A33B9A-799A-45B3-99F7-7F1D40C465EA}" name="#설명값참조" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{6ED49FAE-0E52-458A-A309-DEDD8886FF90}" name="Index" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{C6A9EB00-14E2-4C6C-93F1-4581F9C777E8}" name="LocaleKR" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{E9E8C2F0-6B85-489A-9DC3-7C5EC6FF8DDB}" name="LocaleUS"/>
+    <tableColumn id="1" xr3:uid="{DC21F90A-F14C-414D-8779-D5D1C22EC5A3}" name="#설명값참조" dataDxfId="0">
       <calculatedColumnFormula array="1">IF(ISERROR((INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0))),
 "아이템 자체",
 (INDEX(LocaleTable[LocaleKR],MATCH(LocaleTable[[#This Row],[Index]]-10000,LocaleTable[Index]),0)))</calculatedColumnFormula>
@@ -889,7 +889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB915E32-F77A-4F31-ABDD-BF13DED7A75D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AF221A-C1B1-407B-B8B5-AA595401C3B2}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
